--- a/LF/TAS/Benin/Apr 2021/b_DSA_COVID_Site_visit_v4_tas2.xlsx
+++ b/LF/TAS/Benin/Apr 2021/b_DSA_COVID_Site_visit_v4_tas2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\Apr 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAB7EE4-5CC8-467F-B8D7-72180C1749C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AED9B31-1D2E-48C0-AE93-CA2CA65B15C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="513">
   <si>
     <t>type</t>
   </si>
@@ -735,12 +735,6 @@
     <t>district</t>
   </si>
   <si>
-    <t>dist_name= ${district}</t>
-  </si>
-  <si>
-    <t>dist_name</t>
-  </si>
-  <si>
     <t>constraint_message::French (fr)</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
     <t>Choisissez la commune</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Abomey</t>
   </si>
   <si>
@@ -841,13 +832,742 @@
   </si>
   <si>
     <t>b_dsa_covid_site_v4_bj_tas2</t>
+  </si>
+  <si>
+    <t>site_list</t>
+  </si>
+  <si>
+    <t>Djime/A</t>
+  </si>
+  <si>
+    <t>Gbecon Houegbo/C</t>
+  </si>
+  <si>
+    <t>Agblome/B</t>
+  </si>
+  <si>
+    <t>Agblome/C</t>
+  </si>
+  <si>
+    <t>Agnangnan/A</t>
+  </si>
+  <si>
+    <t>Agnangnan/B</t>
+  </si>
+  <si>
+    <t>Frere Et Soeur</t>
+  </si>
+  <si>
+    <t>Gbecon Hounli/B</t>
+  </si>
+  <si>
+    <t>Institut Des Aveugles D'Abomey</t>
+  </si>
+  <si>
+    <t>La Competence</t>
+  </si>
+  <si>
+    <t>Les Merveilles De L'Academie</t>
+  </si>
+  <si>
+    <t>Houeli</t>
+  </si>
+  <si>
+    <t>Abomey/A</t>
+  </si>
+  <si>
+    <t>Abomey/C</t>
+  </si>
+  <si>
+    <t>Ahouaga/C</t>
+  </si>
+  <si>
+    <t>Catholique Bon Pasteur</t>
+  </si>
+  <si>
+    <t>Dozoeme</t>
+  </si>
+  <si>
+    <t>Houenoussou Grace Divine</t>
+  </si>
+  <si>
+    <t>Oukanme/B</t>
+  </si>
+  <si>
+    <t>Zounzonme</t>
+  </si>
+  <si>
+    <t>Agabgon/C</t>
+  </si>
+  <si>
+    <t>Agbadjagon/B</t>
+  </si>
+  <si>
+    <t>Catholique Saint Francois D'Assise</t>
+  </si>
+  <si>
+    <t>Djognangbo</t>
+  </si>
+  <si>
+    <t>Bohicon/B</t>
+  </si>
+  <si>
+    <t>Bon Citoyen</t>
+  </si>
+  <si>
+    <t>La Clef</t>
+  </si>
+  <si>
+    <t>Leopold Sedar Senghor</t>
+  </si>
+  <si>
+    <t>Notre Dame De Toutes Graces</t>
+  </si>
+  <si>
+    <t>Zakpo/C</t>
+  </si>
+  <si>
+    <t>Houekpa/A</t>
+  </si>
+  <si>
+    <t>Akpadanou/B</t>
+  </si>
+  <si>
+    <t>Akpadanou/C</t>
+  </si>
+  <si>
+    <t>Assigui Gbongodo</t>
+  </si>
+  <si>
+    <t>Azowlisse Centre/B</t>
+  </si>
+  <si>
+    <t>Houngon</t>
+  </si>
+  <si>
+    <t>Kouhoue</t>
+  </si>
+  <si>
+    <t>Gogbo/B</t>
+  </si>
+  <si>
+    <t>Gouke</t>
+  </si>
+  <si>
+    <t>Canaan</t>
+  </si>
+  <si>
+    <t>Don Divin</t>
+  </si>
+  <si>
+    <t>Ke/A</t>
+  </si>
+  <si>
+    <t>La Grace De Dieu</t>
+  </si>
+  <si>
+    <t>Le Meilleur</t>
+  </si>
+  <si>
+    <t>Le Nouveau Citoyen</t>
+  </si>
+  <si>
+    <t>Dekin Kodekpomey</t>
+  </si>
+  <si>
+    <t>Agbanta</t>
+  </si>
+  <si>
+    <t>Gbeko/A</t>
+  </si>
+  <si>
+    <t>Agongue/A</t>
+  </si>
+  <si>
+    <t>Akpame/B</t>
+  </si>
+  <si>
+    <t>Djigbe/A</t>
+  </si>
+  <si>
+    <t>Hozin/B</t>
+  </si>
+  <si>
+    <t>Saint Hilaire</t>
+  </si>
+  <si>
+    <t>Akokponawa</t>
+  </si>
+  <si>
+    <t>Les Vertes Vallees</t>
+  </si>
+  <si>
+    <t>Nelson Mandela Madiba Dine</t>
+  </si>
+  <si>
+    <t>Sai Lagare</t>
+  </si>
+  <si>
+    <t>Sai Lagare/B</t>
+  </si>
+  <si>
+    <t>Yokon/B</t>
+  </si>
+  <si>
+    <t>Zounta-Aga</t>
+  </si>
+  <si>
+    <t>Houedome 2/B</t>
+  </si>
+  <si>
+    <t>Donoukpa</t>
+  </si>
+  <si>
+    <t>Agbalilame/A</t>
+  </si>
+  <si>
+    <t>Agbalilame/B</t>
+  </si>
+  <si>
+    <t>Aubaine</t>
+  </si>
+  <si>
+    <t>Copernic</t>
+  </si>
+  <si>
+    <t>Davatin/B</t>
+  </si>
+  <si>
+    <t>La Gazelle</t>
+  </si>
+  <si>
+    <t>Le Prestige</t>
+  </si>
+  <si>
+    <t>Le Temps</t>
+  </si>
+  <si>
+    <t>Ketonou/A</t>
+  </si>
+  <si>
+    <t>Saint Christophe Ii</t>
+  </si>
+  <si>
+    <t>Jesude</t>
+  </si>
+  <si>
+    <t>Djeffa/B</t>
+  </si>
+  <si>
+    <t>Dodognon</t>
+  </si>
+  <si>
+    <t>Ekpe Kanhonou/A</t>
+  </si>
+  <si>
+    <t>La Cime</t>
+  </si>
+  <si>
+    <t>La Releve</t>
+  </si>
+  <si>
+    <t>L'Avenir</t>
+  </si>
+  <si>
+    <t>Marie La Reine</t>
+  </si>
+  <si>
+    <t>Sainte Philomene</t>
+  </si>
+  <si>
+    <t>Na Se We</t>
+  </si>
+  <si>
+    <t>Africa Progress</t>
+  </si>
+  <si>
+    <t>Decroly</t>
+  </si>
+  <si>
+    <t>Kpoguidi/B</t>
+  </si>
+  <si>
+    <t>La Croissance</t>
+  </si>
+  <si>
+    <t>La Grace Divine</t>
+  </si>
+  <si>
+    <t>Le Flambeau Des Enfants</t>
+  </si>
+  <si>
+    <t>Tohoue/B</t>
+  </si>
+  <si>
+    <t>La Bonne Nouvelle</t>
+  </si>
+  <si>
+    <t>Hounhoueko/A</t>
+  </si>
+  <si>
+    <t>Etoile D'Orient</t>
+  </si>
+  <si>
+    <t>Houegbo/A</t>
+  </si>
+  <si>
+    <t>Akpakanme Avaligbo</t>
+  </si>
+  <si>
+    <t>Akpro Hanzoume/A</t>
+  </si>
+  <si>
+    <t>Danme Lokonon/B</t>
+  </si>
+  <si>
+    <t>La Cite Des Savants</t>
+  </si>
+  <si>
+    <t>Le Formateur D'Abogome</t>
+  </si>
+  <si>
+    <t>Le Relais</t>
+  </si>
+  <si>
+    <t>Les Trois Savoirs Amis</t>
+  </si>
+  <si>
+    <t>Les Gagnants De Demain</t>
+  </si>
+  <si>
+    <t>Bambino Village</t>
+  </si>
+  <si>
+    <t>Afandji Tanme/B</t>
+  </si>
+  <si>
+    <t>Lotin Gbedjehouin/A</t>
+  </si>
+  <si>
+    <t>Sekanme/B</t>
+  </si>
+  <si>
+    <t>Houngon Djinon</t>
+  </si>
+  <si>
+    <t>Gome Doko/B</t>
+  </si>
+  <si>
+    <t>Gome Sota/B</t>
+  </si>
+  <si>
+    <t>Tchoukou Kpevi/B</t>
+  </si>
+  <si>
+    <t>Katagon/C</t>
+  </si>
+  <si>
+    <t>Vante</t>
+  </si>
+  <si>
+    <t>Kouti Centre/C</t>
+  </si>
+  <si>
+    <t>Tanme/C</t>
+  </si>
+  <si>
+    <t>Enfant Epanoui</t>
+  </si>
+  <si>
+    <t>Kotan/A</t>
+  </si>
+  <si>
+    <t>Baptiste Sodohome</t>
+  </si>
+  <si>
+    <t>Les Anges De Dieu</t>
+  </si>
+  <si>
+    <t>Saint Jean Baptiste</t>
+  </si>
+  <si>
+    <t>Vako Anago</t>
+  </si>
+  <si>
+    <t>Tony Beni</t>
+  </si>
+  <si>
+    <t>Akadja/A</t>
+  </si>
+  <si>
+    <t>Banigbe Gare/B</t>
+  </si>
+  <si>
+    <t>Banigbe Lokossa</t>
+  </si>
+  <si>
+    <t>Banigbe Nagot/A</t>
+  </si>
+  <si>
+    <t>Catholique Laudato Si Banigbe</t>
+  </si>
+  <si>
+    <t>Daagbe/B</t>
+  </si>
+  <si>
+    <t>Gblogblo/A</t>
+  </si>
+  <si>
+    <t>Ayetedjou/B</t>
+  </si>
+  <si>
+    <t>Idi Oro/C</t>
+  </si>
+  <si>
+    <t>La Belle Etoile</t>
+  </si>
+  <si>
+    <t>Houmbo/A</t>
+  </si>
+  <si>
+    <t>Lagbe/B</t>
+  </si>
+  <si>
+    <t>Zian/B</t>
+  </si>
+  <si>
+    <t>Saint Vincent De Tchaada</t>
+  </si>
+  <si>
+    <t>Akpechi</t>
+  </si>
+  <si>
+    <t>Assa Game</t>
+  </si>
+  <si>
+    <t>Elewoure</t>
+  </si>
+  <si>
+    <t>Ilougou Ikpedjile</t>
+  </si>
+  <si>
+    <t>Ita Alabe</t>
+  </si>
+  <si>
+    <t>Kossomi</t>
+  </si>
+  <si>
+    <t>Igba/B</t>
+  </si>
+  <si>
+    <t>Ita Djebou Centre/B</t>
+  </si>
+  <si>
+    <t>Kadjola</t>
+  </si>
+  <si>
+    <t>Markaz</t>
+  </si>
+  <si>
+    <t>Odanyogoun/B</t>
+  </si>
+  <si>
+    <t>Agonsa</t>
+  </si>
+  <si>
+    <t>Igbo Akpa Ita Gbokou</t>
+  </si>
+  <si>
+    <t>Ita Gbokou</t>
+  </si>
+  <si>
+    <t>Akadja Takon</t>
+  </si>
+  <si>
+    <t>La Prunelle De Djohoun-Kolle</t>
+  </si>
+  <si>
+    <t>Agbidi Idioro</t>
+  </si>
+  <si>
+    <t>Igbere Okeita/B</t>
+  </si>
+  <si>
+    <t>Eguelou</t>
+  </si>
+  <si>
+    <t>Illemon</t>
+  </si>
+  <si>
+    <t>Araromi</t>
+  </si>
+  <si>
+    <t>Idjakou</t>
+  </si>
+  <si>
+    <t>Igbo Ekpe</t>
+  </si>
+  <si>
+    <t>Igbo Ewe</t>
+  </si>
+  <si>
+    <t>Igbodje</t>
+  </si>
+  <si>
+    <t>Illoulofin</t>
+  </si>
+  <si>
+    <t>Onigbolo Usine/C</t>
+  </si>
+  <si>
+    <t>Agbarou</t>
+  </si>
+  <si>
+    <t>Apostolique</t>
+  </si>
+  <si>
+    <t>Damacy/B</t>
+  </si>
+  <si>
+    <t>Divins Tresors</t>
+  </si>
+  <si>
+    <t>Espoir Pobe</t>
+  </si>
+  <si>
+    <t>Le Plateau/B</t>
+  </si>
+  <si>
+    <t>Les Lys Nda</t>
+  </si>
+  <si>
+    <t>Markaz Al Amir</t>
+  </si>
+  <si>
+    <t>Nonvide Boussari/B</t>
+  </si>
+  <si>
+    <t>Oke Ata/C</t>
+  </si>
+  <si>
+    <t>Pobe / A</t>
+  </si>
+  <si>
+    <t>Pobe/D</t>
+  </si>
+  <si>
+    <t>Abodjoukpa</t>
+  </si>
+  <si>
+    <t>Ibate</t>
+  </si>
+  <si>
+    <t>Igbo Ede Chaffou</t>
+  </si>
+  <si>
+    <t>Issokou Oniwere</t>
+  </si>
+  <si>
+    <t>Lafenwa</t>
+  </si>
+  <si>
+    <t>Oke Odja</t>
+  </si>
+  <si>
+    <t>Towe/B</t>
+  </si>
+  <si>
+    <t>Ahouaga/B</t>
+  </si>
+  <si>
+    <t>Djegbe/B</t>
+  </si>
+  <si>
+    <t>Les Semences</t>
+  </si>
+  <si>
+    <t>Alikpa</t>
+  </si>
+  <si>
+    <t>Anne Et Pierre</t>
+  </si>
+  <si>
+    <t>Ecole Chretienne De Zounkpa</t>
+  </si>
+  <si>
+    <t>Hezonho/B</t>
+  </si>
+  <si>
+    <t>La Seve</t>
+  </si>
+  <si>
+    <t>Vehou/B</t>
+  </si>
+  <si>
+    <t>Zouzonme Avogbanna</t>
+  </si>
+  <si>
+    <t>Ague Kpota</t>
+  </si>
+  <si>
+    <t>Awo Godo</t>
+  </si>
+  <si>
+    <t>Centre Pere Paul Rival</t>
+  </si>
+  <si>
+    <t>Gangban/C</t>
+  </si>
+  <si>
+    <t>Klogbome</t>
+  </si>
+  <si>
+    <t>Saharo Centre</t>
+  </si>
+  <si>
+    <t>Fingninkanme</t>
+  </si>
+  <si>
+    <t>Le Pionnier Ii</t>
+  </si>
+  <si>
+    <t>Saint Marc De Dekin Honhoue</t>
+  </si>
+  <si>
+    <t>Tokpa Blihoue</t>
+  </si>
+  <si>
+    <t>Aniviekome</t>
+  </si>
+  <si>
+    <t>Salem</t>
+  </si>
+  <si>
+    <t>Cite De Grace De Djeffa</t>
+  </si>
+  <si>
+    <t>Djeregbe/C</t>
+  </si>
+  <si>
+    <t>Horoca</t>
+  </si>
+  <si>
+    <t>Le Miracle De Tohoue</t>
+  </si>
+  <si>
+    <t>Le Phenix</t>
+  </si>
+  <si>
+    <t>Notre Dame De L'Atlantique/B</t>
+  </si>
+  <si>
+    <t>Saint Antoine De Padoue Ekpe</t>
+  </si>
+  <si>
+    <t>Sainte Genevieve</t>
+  </si>
+  <si>
+    <t>Abogome/A</t>
+  </si>
+  <si>
+    <t>Abogome/B</t>
+  </si>
+  <si>
+    <t>Adjina/B</t>
+  </si>
+  <si>
+    <t>Akpakanme/A</t>
+  </si>
+  <si>
+    <t>Kouve/A</t>
+  </si>
+  <si>
+    <t>Les Erudits</t>
+  </si>
+  <si>
+    <t>Les Petits Genies De Lotin</t>
+  </si>
+  <si>
+    <t>Tanzoun/A</t>
+  </si>
+  <si>
+    <t>Saint Laurent</t>
+  </si>
+  <si>
+    <t>Tchakou/A</t>
+  </si>
+  <si>
+    <t>Ketou Gbecon/B</t>
+  </si>
+  <si>
+    <t>Ketoukpe</t>
+  </si>
+  <si>
+    <t>Ko Koumonlou/B</t>
+  </si>
+  <si>
+    <t>La Source Du Savoir Banigbe</t>
+  </si>
+  <si>
+    <t>Migbehoue</t>
+  </si>
+  <si>
+    <t>Videkon</t>
+  </si>
+  <si>
+    <t>Coeur Immaculee De Marie</t>
+  </si>
+  <si>
+    <t>Iliro Sodji</t>
+  </si>
+  <si>
+    <t>Modogan</t>
+  </si>
+  <si>
+    <t>Sahoro Nagot</t>
+  </si>
+  <si>
+    <t>Akouho/A</t>
+  </si>
+  <si>
+    <t>Akpate Ayekou</t>
+  </si>
+  <si>
+    <t>Gbagui</t>
+  </si>
+  <si>
+    <t>Igbo Itche Ogouba</t>
+  </si>
+  <si>
+    <t>La Confiance Talala Pobe</t>
+  </si>
+  <si>
+    <t>Oke Ata/B</t>
+  </si>
+  <si>
+    <t>Okere</t>
+  </si>
+  <si>
+    <t>Onigbolo Usine/B</t>
+  </si>
+  <si>
+    <t>Terre Promise</t>
+  </si>
+  <si>
+    <t>Zone Residentielle/A (Mamague)</t>
+  </si>
+  <si>
+    <t>select_one site_list</t>
+  </si>
+  <si>
+    <t>district = ${district}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -904,17 +1624,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -944,7 +1653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,12 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,10 +2106,10 @@
   <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD10"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" customHeight="1"/>
@@ -1483,7 +2186,7 @@
         <v>13</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>14</v>
@@ -1648,11 +2351,11 @@
         <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>56</v>
@@ -1669,7 +2372,7 @@
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>511</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>233</v>
@@ -1679,7 +2382,7 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>56</v>
@@ -1687,7 +2390,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="S10" s="1" t="s">
-        <v>237</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="12" customFormat="1" ht="12.75">
@@ -1716,7 +2419,7 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>56</v>
@@ -1802,7 +2505,7 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>56</v>
@@ -1911,7 +2614,7 @@
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>56</v>
@@ -2169,7 +2872,7 @@
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>56</v>
@@ -2212,7 +2915,7 @@
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>56</v>
@@ -2255,7 +2958,7 @@
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>56</v>
@@ -2837,7 +3540,7 @@
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>56</v>
@@ -3232,11 +3935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
@@ -3245,7 +3948,7 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -3262,7 +3965,7 @@
         <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3340,13 +4043,13 @@
         <v>236</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -3354,13 +4057,13 @@
         <v>236</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" ht="15.75" customHeight="1">
@@ -3368,13 +4071,13 @@
         <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
@@ -3382,13 +4085,13 @@
         <v>236</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3396,13 +4099,13 @@
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3410,13 +4113,13 @@
         <v>236</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3424,13 +4127,13 @@
         <v>236</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3438,13 +4141,13 @@
         <v>236</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3452,13 +4155,13 @@
         <v>236</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
@@ -3466,147 +4169,4122 @@
         <v>236</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-    </row>
-    <row r="31" spans="1:6" ht="12.75" customHeight="1">
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" spans="1:6" ht="12.75" customHeight="1">
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="6:6" ht="12.75" customHeight="1">
-      <c r="F38" s="20"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" t="s">
+        <v>274</v>
+      </c>
+      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" t="s">
+        <v>275</v>
+      </c>
+      <c r="E24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>277</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>270</v>
+      </c>
+      <c r="B27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>279</v>
+      </c>
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>281</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A32" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" t="s">
+        <v>283</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A33" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>285</v>
+      </c>
+      <c r="C34" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" t="s">
+        <v>285</v>
+      </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" t="s">
+        <v>286</v>
+      </c>
+      <c r="D35" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" t="s">
+        <v>287</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A37" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D38" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A41" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A42" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A44" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" t="s">
+        <v>295</v>
+      </c>
+      <c r="C44" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" t="s">
+        <v>295</v>
+      </c>
+      <c r="E44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A46" t="s">
+        <v>270</v>
+      </c>
+      <c r="B46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" t="s">
+        <v>297</v>
+      </c>
+      <c r="E46" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A47" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A48" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" t="s">
+        <v>299</v>
+      </c>
+      <c r="D48" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+      <c r="E50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A51" t="s">
+        <v>270</v>
+      </c>
+      <c r="B51" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B52" t="s">
+        <v>303</v>
+      </c>
+      <c r="C52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C53" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>270</v>
+      </c>
+      <c r="B54" t="s">
+        <v>305</v>
+      </c>
+      <c r="C54" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" t="s">
+        <v>306</v>
+      </c>
+      <c r="E55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56" t="s">
+        <v>307</v>
+      </c>
+      <c r="D56" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
+      <c r="D57" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A58" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" t="s">
+        <v>309</v>
+      </c>
+      <c r="E58" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A59" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" t="s">
+        <v>310</v>
+      </c>
+      <c r="C59" t="s">
+        <v>310</v>
+      </c>
+      <c r="D59" t="s">
+        <v>310</v>
+      </c>
+      <c r="E59" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A60" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C60" t="s">
+        <v>311</v>
+      </c>
+      <c r="D60" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+      <c r="C61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E61" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A62" t="s">
+        <v>270</v>
+      </c>
+      <c r="B62" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D62" t="s">
+        <v>313</v>
+      </c>
+      <c r="E62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A63" t="s">
+        <v>270</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" t="s">
+        <v>314</v>
+      </c>
+      <c r="E63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A64" t="s">
+        <v>270</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
+      </c>
+      <c r="E64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C65" t="s">
+        <v>316</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+      <c r="E65" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" t="s">
+        <v>317</v>
+      </c>
+      <c r="C66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+      <c r="E66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+      <c r="E67" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A68" t="s">
+        <v>270</v>
+      </c>
+      <c r="B68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C68" t="s">
+        <v>319</v>
+      </c>
+      <c r="D68" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>320</v>
+      </c>
+      <c r="C69" t="s">
+        <v>320</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>270</v>
+      </c>
+      <c r="B70" t="s">
+        <v>321</v>
+      </c>
+      <c r="C70" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A71" t="s">
+        <v>270</v>
+      </c>
+      <c r="B71" t="s">
+        <v>322</v>
+      </c>
+      <c r="C71" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>323</v>
+      </c>
+      <c r="C72" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E72" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>270</v>
+      </c>
+      <c r="B73" t="s">
+        <v>324</v>
+      </c>
+      <c r="C73" t="s">
+        <v>324</v>
+      </c>
+      <c r="D73" t="s">
+        <v>324</v>
+      </c>
+      <c r="E73" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>325</v>
+      </c>
+      <c r="C74" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A75" t="s">
+        <v>270</v>
+      </c>
+      <c r="B75" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75" t="s">
+        <v>326</v>
+      </c>
+      <c r="D75" t="s">
+        <v>326</v>
+      </c>
+      <c r="E75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" t="s">
+        <v>327</v>
+      </c>
+      <c r="D76" t="s">
+        <v>327</v>
+      </c>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" t="s">
+        <v>328</v>
+      </c>
+      <c r="C77" t="s">
+        <v>328</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" t="s">
+        <v>329</v>
+      </c>
+      <c r="D78" t="s">
+        <v>329</v>
+      </c>
+      <c r="E78" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A79" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" t="s">
+        <v>330</v>
+      </c>
+      <c r="C79" t="s">
+        <v>330</v>
+      </c>
+      <c r="D79" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A80" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" t="s">
+        <v>331</v>
+      </c>
+      <c r="E80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A81" t="s">
+        <v>270</v>
+      </c>
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" t="s">
+        <v>332</v>
+      </c>
+      <c r="E81" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" t="s">
+        <v>334</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" t="s">
+        <v>335</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
+      </c>
+      <c r="E84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>336</v>
+      </c>
+      <c r="E85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A86" t="s">
+        <v>270</v>
+      </c>
+      <c r="B86" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" t="s">
+        <v>337</v>
+      </c>
+      <c r="E86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>338</v>
+      </c>
+      <c r="C87" t="s">
+        <v>338</v>
+      </c>
+      <c r="D87" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" t="s">
+        <v>339</v>
+      </c>
+      <c r="E88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A89" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" t="s">
+        <v>340</v>
+      </c>
+      <c r="D89" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A90" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" t="s">
+        <v>341</v>
+      </c>
+      <c r="E90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A91" t="s">
+        <v>270</v>
+      </c>
+      <c r="B91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" t="s">
+        <v>342</v>
+      </c>
+      <c r="E91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" t="s">
+        <v>343</v>
+      </c>
+      <c r="D92" t="s">
+        <v>343</v>
+      </c>
+      <c r="E92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" t="s">
+        <v>344</v>
+      </c>
+      <c r="D93" t="s">
+        <v>344</v>
+      </c>
+      <c r="E93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A94" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A95" t="s">
+        <v>270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>346</v>
+      </c>
+      <c r="D95" t="s">
+        <v>346</v>
+      </c>
+      <c r="E95" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A96" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" t="s">
+        <v>347</v>
+      </c>
+      <c r="D96" t="s">
+        <v>347</v>
+      </c>
+      <c r="E96" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>348</v>
+      </c>
+      <c r="D97" t="s">
+        <v>348</v>
+      </c>
+      <c r="E97" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A98" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D98" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A99" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" t="s">
+        <v>350</v>
+      </c>
+      <c r="D99" t="s">
+        <v>350</v>
+      </c>
+      <c r="E99" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" t="s">
+        <v>351</v>
+      </c>
+      <c r="C100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100" t="s">
+        <v>351</v>
+      </c>
+      <c r="E100" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A101" t="s">
+        <v>270</v>
+      </c>
+      <c r="B101" t="s">
+        <v>352</v>
+      </c>
+      <c r="C101" t="s">
+        <v>352</v>
+      </c>
+      <c r="D101" t="s">
+        <v>352</v>
+      </c>
+      <c r="E101" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A102" t="s">
+        <v>270</v>
+      </c>
+      <c r="B102" t="s">
+        <v>353</v>
+      </c>
+      <c r="C102" t="s">
+        <v>353</v>
+      </c>
+      <c r="D102" t="s">
+        <v>353</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103" t="s">
+        <v>354</v>
+      </c>
+      <c r="C103" t="s">
+        <v>354</v>
+      </c>
+      <c r="D103" t="s">
+        <v>354</v>
+      </c>
+      <c r="E103" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A104" t="s">
+        <v>270</v>
+      </c>
+      <c r="B104" t="s">
+        <v>355</v>
+      </c>
+      <c r="C104" t="s">
+        <v>355</v>
+      </c>
+      <c r="D104" t="s">
+        <v>355</v>
+      </c>
+      <c r="E104" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A105" t="s">
+        <v>270</v>
+      </c>
+      <c r="B105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105" t="s">
+        <v>356</v>
+      </c>
+      <c r="E105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A106" t="s">
+        <v>270</v>
+      </c>
+      <c r="B106" t="s">
+        <v>357</v>
+      </c>
+      <c r="C106" t="s">
+        <v>357</v>
+      </c>
+      <c r="D106" t="s">
+        <v>357</v>
+      </c>
+      <c r="E106" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A107" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" t="s">
+        <v>358</v>
+      </c>
+      <c r="C107" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A108" t="s">
+        <v>270</v>
+      </c>
+      <c r="B108" t="s">
+        <v>359</v>
+      </c>
+      <c r="C108" t="s">
+        <v>359</v>
+      </c>
+      <c r="D108" t="s">
+        <v>359</v>
+      </c>
+      <c r="E108" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+      <c r="B109" t="s">
+        <v>360</v>
+      </c>
+      <c r="C109" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" t="s">
+        <v>360</v>
+      </c>
+      <c r="E109" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A110" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" t="s">
+        <v>361</v>
+      </c>
+      <c r="C110" t="s">
+        <v>361</v>
+      </c>
+      <c r="D110" t="s">
+        <v>361</v>
+      </c>
+      <c r="E110" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A111" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C111" t="s">
+        <v>362</v>
+      </c>
+      <c r="D111" t="s">
+        <v>362</v>
+      </c>
+      <c r="E111" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A112" t="s">
+        <v>270</v>
+      </c>
+      <c r="B112" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" t="s">
+        <v>363</v>
+      </c>
+      <c r="D112" t="s">
+        <v>363</v>
+      </c>
+      <c r="E112" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" t="s">
+        <v>364</v>
+      </c>
+      <c r="C113" t="s">
+        <v>364</v>
+      </c>
+      <c r="D113" t="s">
+        <v>364</v>
+      </c>
+      <c r="E113" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A114" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
+        <v>365</v>
+      </c>
+      <c r="C114" t="s">
+        <v>365</v>
+      </c>
+      <c r="D114" t="s">
+        <v>365</v>
+      </c>
+      <c r="E114" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A115" t="s">
+        <v>270</v>
+      </c>
+      <c r="B115" t="s">
+        <v>366</v>
+      </c>
+      <c r="C115" t="s">
+        <v>366</v>
+      </c>
+      <c r="D115" t="s">
+        <v>366</v>
+      </c>
+      <c r="E115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A116" t="s">
+        <v>270</v>
+      </c>
+      <c r="B116" t="s">
+        <v>367</v>
+      </c>
+      <c r="C116" t="s">
+        <v>367</v>
+      </c>
+      <c r="D116" t="s">
+        <v>367</v>
+      </c>
+      <c r="E116" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A117" t="s">
+        <v>270</v>
+      </c>
+      <c r="B117" t="s">
+        <v>368</v>
+      </c>
+      <c r="C117" t="s">
+        <v>368</v>
+      </c>
+      <c r="D117" t="s">
+        <v>368</v>
+      </c>
+      <c r="E117" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A118" t="s">
+        <v>270</v>
+      </c>
+      <c r="B118" t="s">
+        <v>369</v>
+      </c>
+      <c r="C118" t="s">
+        <v>369</v>
+      </c>
+      <c r="D118" t="s">
+        <v>369</v>
+      </c>
+      <c r="E118" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A119" t="s">
+        <v>270</v>
+      </c>
+      <c r="B119" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" t="s">
+        <v>370</v>
+      </c>
+      <c r="D119" t="s">
+        <v>370</v>
+      </c>
+      <c r="E119" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A120" t="s">
+        <v>270</v>
+      </c>
+      <c r="B120" t="s">
+        <v>371</v>
+      </c>
+      <c r="C120" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" t="s">
+        <v>372</v>
+      </c>
+      <c r="E121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A122" t="s">
+        <v>270</v>
+      </c>
+      <c r="B122" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" t="s">
+        <v>373</v>
+      </c>
+      <c r="D122" t="s">
+        <v>373</v>
+      </c>
+      <c r="E122" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A123" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" t="s">
+        <v>374</v>
+      </c>
+      <c r="D123" t="s">
+        <v>374</v>
+      </c>
+      <c r="E123" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" t="s">
+        <v>375</v>
+      </c>
+      <c r="D124" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A125" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" t="s">
+        <v>376</v>
+      </c>
+      <c r="C125" t="s">
+        <v>376</v>
+      </c>
+      <c r="D125" t="s">
+        <v>376</v>
+      </c>
+      <c r="E125" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A126" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" t="s">
+        <v>377</v>
+      </c>
+      <c r="C126" t="s">
+        <v>377</v>
+      </c>
+      <c r="D126" t="s">
+        <v>377</v>
+      </c>
+      <c r="E126" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A127" t="s">
+        <v>270</v>
+      </c>
+      <c r="B127" t="s">
+        <v>378</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>378</v>
+      </c>
+      <c r="E127" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A128" t="s">
+        <v>270</v>
+      </c>
+      <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" t="s">
+        <v>379</v>
+      </c>
+      <c r="D128" t="s">
+        <v>379</v>
+      </c>
+      <c r="E128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A129" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" t="s">
+        <v>380</v>
+      </c>
+      <c r="C129" t="s">
+        <v>380</v>
+      </c>
+      <c r="D129" t="s">
+        <v>380</v>
+      </c>
+      <c r="E129" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A130" t="s">
+        <v>270</v>
+      </c>
+      <c r="B130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" t="s">
+        <v>381</v>
+      </c>
+      <c r="E130" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A131" t="s">
+        <v>270</v>
+      </c>
+      <c r="B131" t="s">
+        <v>382</v>
+      </c>
+      <c r="C131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D131" t="s">
+        <v>382</v>
+      </c>
+      <c r="E131" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A132" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" t="s">
+        <v>383</v>
+      </c>
+      <c r="C132" t="s">
+        <v>383</v>
+      </c>
+      <c r="D132" t="s">
+        <v>383</v>
+      </c>
+      <c r="E132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A133" t="s">
+        <v>270</v>
+      </c>
+      <c r="B133" t="s">
+        <v>384</v>
+      </c>
+      <c r="C133" t="s">
+        <v>384</v>
+      </c>
+      <c r="D133" t="s">
+        <v>384</v>
+      </c>
+      <c r="E133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A134" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" t="s">
+        <v>385</v>
+      </c>
+      <c r="C134" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A135" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" t="s">
+        <v>386</v>
+      </c>
+      <c r="C135" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" t="s">
+        <v>386</v>
+      </c>
+      <c r="E135" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>387</v>
+      </c>
+      <c r="C136" t="s">
+        <v>387</v>
+      </c>
+      <c r="D136" t="s">
+        <v>387</v>
+      </c>
+      <c r="E136" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>388</v>
+      </c>
+      <c r="C137" t="s">
+        <v>388</v>
+      </c>
+      <c r="D137" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A138" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" t="s">
+        <v>389</v>
+      </c>
+      <c r="C138" t="s">
+        <v>389</v>
+      </c>
+      <c r="D138" t="s">
+        <v>389</v>
+      </c>
+      <c r="E138" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A139" t="s">
+        <v>270</v>
+      </c>
+      <c r="B139" t="s">
+        <v>390</v>
+      </c>
+      <c r="C139" t="s">
+        <v>390</v>
+      </c>
+      <c r="D139" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A140" t="s">
+        <v>270</v>
+      </c>
+      <c r="B140" t="s">
+        <v>391</v>
+      </c>
+      <c r="C140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" t="s">
+        <v>391</v>
+      </c>
+      <c r="E140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A141" t="s">
+        <v>270</v>
+      </c>
+      <c r="B141" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" t="s">
+        <v>392</v>
+      </c>
+      <c r="D141" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A142" t="s">
+        <v>270</v>
+      </c>
+      <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" t="s">
+        <v>393</v>
+      </c>
+      <c r="D142" t="s">
+        <v>393</v>
+      </c>
+      <c r="E142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A143" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" t="s">
+        <v>394</v>
+      </c>
+      <c r="C143" t="s">
+        <v>394</v>
+      </c>
+      <c r="D143" t="s">
+        <v>394</v>
+      </c>
+      <c r="E143" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A144" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" t="s">
+        <v>395</v>
+      </c>
+      <c r="C144" t="s">
+        <v>395</v>
+      </c>
+      <c r="D144" t="s">
+        <v>395</v>
+      </c>
+      <c r="E144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A145" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" t="s">
+        <v>396</v>
+      </c>
+      <c r="C145" t="s">
+        <v>396</v>
+      </c>
+      <c r="D145" t="s">
+        <v>396</v>
+      </c>
+      <c r="E145" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>397</v>
+      </c>
+      <c r="C146" t="s">
+        <v>397</v>
+      </c>
+      <c r="D146" t="s">
+        <v>397</v>
+      </c>
+      <c r="E146" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" t="s">
+        <v>398</v>
+      </c>
+      <c r="C147" t="s">
+        <v>398</v>
+      </c>
+      <c r="D147" t="s">
+        <v>398</v>
+      </c>
+      <c r="E147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A148" t="s">
+        <v>270</v>
+      </c>
+      <c r="B148" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" t="s">
+        <v>399</v>
+      </c>
+      <c r="D148" t="s">
+        <v>399</v>
+      </c>
+      <c r="E148" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A149" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" t="s">
+        <v>400</v>
+      </c>
+      <c r="C149" t="s">
+        <v>400</v>
+      </c>
+      <c r="D149" t="s">
+        <v>400</v>
+      </c>
+      <c r="E149" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A150" t="s">
+        <v>270</v>
+      </c>
+      <c r="B150" t="s">
+        <v>401</v>
+      </c>
+      <c r="C150" t="s">
+        <v>401</v>
+      </c>
+      <c r="D150" t="s">
+        <v>401</v>
+      </c>
+      <c r="E150" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A151" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" t="s">
+        <v>402</v>
+      </c>
+      <c r="C151" t="s">
+        <v>402</v>
+      </c>
+      <c r="D151" t="s">
+        <v>402</v>
+      </c>
+      <c r="E151" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A152" t="s">
+        <v>270</v>
+      </c>
+      <c r="B152" t="s">
+        <v>403</v>
+      </c>
+      <c r="C152" t="s">
+        <v>403</v>
+      </c>
+      <c r="D152" t="s">
+        <v>403</v>
+      </c>
+      <c r="E152" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A153" t="s">
+        <v>270</v>
+      </c>
+      <c r="B153" t="s">
+        <v>404</v>
+      </c>
+      <c r="C153" t="s">
+        <v>404</v>
+      </c>
+      <c r="D153" t="s">
+        <v>404</v>
+      </c>
+      <c r="E153" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A154" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" t="s">
+        <v>405</v>
+      </c>
+      <c r="C154" t="s">
+        <v>405</v>
+      </c>
+      <c r="D154" t="s">
+        <v>405</v>
+      </c>
+      <c r="E154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A155" t="s">
+        <v>270</v>
+      </c>
+      <c r="B155" t="s">
+        <v>406</v>
+      </c>
+      <c r="C155" t="s">
+        <v>406</v>
+      </c>
+      <c r="D155" t="s">
+        <v>406</v>
+      </c>
+      <c r="E155" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A156" t="s">
+        <v>270</v>
+      </c>
+      <c r="B156" t="s">
+        <v>407</v>
+      </c>
+      <c r="C156" t="s">
+        <v>407</v>
+      </c>
+      <c r="D156" t="s">
+        <v>407</v>
+      </c>
+      <c r="E156" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A157" t="s">
+        <v>270</v>
+      </c>
+      <c r="B157" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" t="s">
+        <v>408</v>
+      </c>
+      <c r="D157" t="s">
+        <v>408</v>
+      </c>
+      <c r="E157" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A158" t="s">
+        <v>270</v>
+      </c>
+      <c r="B158" t="s">
+        <v>409</v>
+      </c>
+      <c r="C158" t="s">
+        <v>409</v>
+      </c>
+      <c r="D158" t="s">
+        <v>409</v>
+      </c>
+      <c r="E158" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A159" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" t="s">
+        <v>410</v>
+      </c>
+      <c r="D159" t="s">
+        <v>410</v>
+      </c>
+      <c r="E159" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A160" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" t="s">
+        <v>411</v>
+      </c>
+      <c r="C160" t="s">
+        <v>411</v>
+      </c>
+      <c r="D160" t="s">
+        <v>411</v>
+      </c>
+      <c r="E160" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A161" t="s">
+        <v>270</v>
+      </c>
+      <c r="B161" t="s">
+        <v>412</v>
+      </c>
+      <c r="C161" t="s">
+        <v>412</v>
+      </c>
+      <c r="D161" t="s">
+        <v>412</v>
+      </c>
+      <c r="E161" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A162" t="s">
+        <v>270</v>
+      </c>
+      <c r="B162" t="s">
+        <v>413</v>
+      </c>
+      <c r="C162" t="s">
+        <v>413</v>
+      </c>
+      <c r="D162" t="s">
+        <v>413</v>
+      </c>
+      <c r="E162" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A163" t="s">
+        <v>270</v>
+      </c>
+      <c r="B163" t="s">
+        <v>414</v>
+      </c>
+      <c r="C163" t="s">
+        <v>414</v>
+      </c>
+      <c r="D163" t="s">
+        <v>414</v>
+      </c>
+      <c r="E163" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A164" t="s">
+        <v>270</v>
+      </c>
+      <c r="B164" t="s">
+        <v>415</v>
+      </c>
+      <c r="C164" t="s">
+        <v>415</v>
+      </c>
+      <c r="D164" t="s">
+        <v>415</v>
+      </c>
+      <c r="E164" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A165" t="s">
+        <v>270</v>
+      </c>
+      <c r="B165" t="s">
+        <v>416</v>
+      </c>
+      <c r="C165" t="s">
+        <v>416</v>
+      </c>
+      <c r="D165" t="s">
+        <v>416</v>
+      </c>
+      <c r="E165" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A166" t="s">
+        <v>270</v>
+      </c>
+      <c r="B166" t="s">
+        <v>417</v>
+      </c>
+      <c r="C166" t="s">
+        <v>417</v>
+      </c>
+      <c r="D166" t="s">
+        <v>417</v>
+      </c>
+      <c r="E166" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A167" t="s">
+        <v>270</v>
+      </c>
+      <c r="B167" t="s">
+        <v>418</v>
+      </c>
+      <c r="C167" t="s">
+        <v>418</v>
+      </c>
+      <c r="D167" t="s">
+        <v>418</v>
+      </c>
+      <c r="E167" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A168" t="s">
+        <v>270</v>
+      </c>
+      <c r="B168" t="s">
+        <v>419</v>
+      </c>
+      <c r="C168" t="s">
+        <v>419</v>
+      </c>
+      <c r="D168" t="s">
+        <v>419</v>
+      </c>
+      <c r="E168" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A169" t="s">
+        <v>270</v>
+      </c>
+      <c r="B169" t="s">
+        <v>420</v>
+      </c>
+      <c r="C169" t="s">
+        <v>420</v>
+      </c>
+      <c r="D169" t="s">
+        <v>420</v>
+      </c>
+      <c r="E169" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A170" t="s">
+        <v>270</v>
+      </c>
+      <c r="B170" t="s">
+        <v>421</v>
+      </c>
+      <c r="C170" t="s">
+        <v>421</v>
+      </c>
+      <c r="D170" t="s">
+        <v>421</v>
+      </c>
+      <c r="E170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A171" t="s">
+        <v>270</v>
+      </c>
+      <c r="B171" t="s">
+        <v>422</v>
+      </c>
+      <c r="C171" t="s">
+        <v>422</v>
+      </c>
+      <c r="D171" t="s">
+        <v>422</v>
+      </c>
+      <c r="E171" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A172" t="s">
+        <v>270</v>
+      </c>
+      <c r="B172" t="s">
+        <v>423</v>
+      </c>
+      <c r="C172" t="s">
+        <v>423</v>
+      </c>
+      <c r="D172" t="s">
+        <v>423</v>
+      </c>
+      <c r="E172" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A173" t="s">
+        <v>270</v>
+      </c>
+      <c r="B173" t="s">
+        <v>424</v>
+      </c>
+      <c r="C173" t="s">
+        <v>424</v>
+      </c>
+      <c r="D173" t="s">
+        <v>424</v>
+      </c>
+      <c r="E173" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A174" t="s">
+        <v>270</v>
+      </c>
+      <c r="B174" t="s">
+        <v>425</v>
+      </c>
+      <c r="C174" t="s">
+        <v>425</v>
+      </c>
+      <c r="D174" t="s">
+        <v>425</v>
+      </c>
+      <c r="E174" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A175" t="s">
+        <v>270</v>
+      </c>
+      <c r="B175" t="s">
+        <v>426</v>
+      </c>
+      <c r="C175" t="s">
+        <v>426</v>
+      </c>
+      <c r="D175" t="s">
+        <v>426</v>
+      </c>
+      <c r="E175" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A176" t="s">
+        <v>270</v>
+      </c>
+      <c r="B176" t="s">
+        <v>427</v>
+      </c>
+      <c r="C176" t="s">
+        <v>427</v>
+      </c>
+      <c r="D176" t="s">
+        <v>427</v>
+      </c>
+      <c r="E176" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A177" t="s">
+        <v>270</v>
+      </c>
+      <c r="B177" t="s">
+        <v>428</v>
+      </c>
+      <c r="C177" t="s">
+        <v>428</v>
+      </c>
+      <c r="D177" t="s">
+        <v>428</v>
+      </c>
+      <c r="E177" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A178" t="s">
+        <v>270</v>
+      </c>
+      <c r="B178" t="s">
+        <v>429</v>
+      </c>
+      <c r="C178" t="s">
+        <v>429</v>
+      </c>
+      <c r="D178" t="s">
+        <v>429</v>
+      </c>
+      <c r="E178" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A179" t="s">
+        <v>270</v>
+      </c>
+      <c r="B179" t="s">
+        <v>430</v>
+      </c>
+      <c r="C179" t="s">
+        <v>430</v>
+      </c>
+      <c r="D179" t="s">
+        <v>430</v>
+      </c>
+      <c r="E179" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A180" t="s">
+        <v>270</v>
+      </c>
+      <c r="B180" t="s">
+        <v>431</v>
+      </c>
+      <c r="C180" t="s">
+        <v>431</v>
+      </c>
+      <c r="D180" t="s">
+        <v>431</v>
+      </c>
+      <c r="E180" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A181" t="s">
+        <v>270</v>
+      </c>
+      <c r="B181" t="s">
+        <v>432</v>
+      </c>
+      <c r="C181" t="s">
+        <v>432</v>
+      </c>
+      <c r="D181" t="s">
+        <v>432</v>
+      </c>
+      <c r="E181" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A182" t="s">
+        <v>270</v>
+      </c>
+      <c r="B182" t="s">
+        <v>433</v>
+      </c>
+      <c r="C182" t="s">
+        <v>433</v>
+      </c>
+      <c r="D182" t="s">
+        <v>433</v>
+      </c>
+      <c r="E182" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A183" t="s">
+        <v>270</v>
+      </c>
+      <c r="B183" t="s">
+        <v>434</v>
+      </c>
+      <c r="C183" t="s">
+        <v>434</v>
+      </c>
+      <c r="D183" t="s">
+        <v>434</v>
+      </c>
+      <c r="E183" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A184" t="s">
+        <v>270</v>
+      </c>
+      <c r="B184" t="s">
+        <v>435</v>
+      </c>
+      <c r="C184" t="s">
+        <v>435</v>
+      </c>
+      <c r="D184" t="s">
+        <v>435</v>
+      </c>
+      <c r="E184" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A185" t="s">
+        <v>270</v>
+      </c>
+      <c r="B185" t="s">
+        <v>436</v>
+      </c>
+      <c r="C185" t="s">
+        <v>436</v>
+      </c>
+      <c r="D185" t="s">
+        <v>436</v>
+      </c>
+      <c r="E185" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A186" t="s">
+        <v>270</v>
+      </c>
+      <c r="B186" t="s">
+        <v>437</v>
+      </c>
+      <c r="C186" t="s">
+        <v>437</v>
+      </c>
+      <c r="D186" t="s">
+        <v>437</v>
+      </c>
+      <c r="E186" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A187" t="s">
+        <v>270</v>
+      </c>
+      <c r="B187" t="s">
+        <v>438</v>
+      </c>
+      <c r="C187" t="s">
+        <v>438</v>
+      </c>
+      <c r="D187" t="s">
+        <v>438</v>
+      </c>
+      <c r="E187" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A188" t="s">
+        <v>270</v>
+      </c>
+      <c r="B188" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" t="s">
+        <v>439</v>
+      </c>
+      <c r="D188" t="s">
+        <v>439</v>
+      </c>
+      <c r="E188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A189" t="s">
+        <v>270</v>
+      </c>
+      <c r="B189" t="s">
+        <v>440</v>
+      </c>
+      <c r="C189" t="s">
+        <v>440</v>
+      </c>
+      <c r="D189" t="s">
+        <v>440</v>
+      </c>
+      <c r="E189" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A190" t="s">
+        <v>270</v>
+      </c>
+      <c r="B190" t="s">
+        <v>441</v>
+      </c>
+      <c r="C190" t="s">
+        <v>441</v>
+      </c>
+      <c r="D190" t="s">
+        <v>441</v>
+      </c>
+      <c r="E190" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A191" t="s">
+        <v>270</v>
+      </c>
+      <c r="B191" t="s">
+        <v>442</v>
+      </c>
+      <c r="C191" t="s">
+        <v>442</v>
+      </c>
+      <c r="D191" t="s">
+        <v>442</v>
+      </c>
+      <c r="E191" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A192" t="s">
+        <v>270</v>
+      </c>
+      <c r="B192" t="s">
+        <v>443</v>
+      </c>
+      <c r="C192" t="s">
+        <v>443</v>
+      </c>
+      <c r="D192" t="s">
+        <v>443</v>
+      </c>
+      <c r="E192" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A193" t="s">
+        <v>270</v>
+      </c>
+      <c r="B193" t="s">
+        <v>444</v>
+      </c>
+      <c r="C193" t="s">
+        <v>444</v>
+      </c>
+      <c r="D193" t="s">
+        <v>444</v>
+      </c>
+      <c r="E193" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A194" t="s">
+        <v>270</v>
+      </c>
+      <c r="B194" t="s">
+        <v>445</v>
+      </c>
+      <c r="C194" t="s">
+        <v>445</v>
+      </c>
+      <c r="D194" t="s">
+        <v>445</v>
+      </c>
+      <c r="E194" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A195" t="s">
+        <v>270</v>
+      </c>
+      <c r="B195" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" t="s">
+        <v>446</v>
+      </c>
+      <c r="D195" t="s">
+        <v>446</v>
+      </c>
+      <c r="E195" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A196" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" t="s">
+        <v>447</v>
+      </c>
+      <c r="C196" t="s">
+        <v>447</v>
+      </c>
+      <c r="D196" t="s">
+        <v>447</v>
+      </c>
+      <c r="E196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A197" t="s">
+        <v>270</v>
+      </c>
+      <c r="B197" t="s">
+        <v>448</v>
+      </c>
+      <c r="C197" t="s">
+        <v>448</v>
+      </c>
+      <c r="D197" t="s">
+        <v>448</v>
+      </c>
+      <c r="E197" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A198" t="s">
+        <v>270</v>
+      </c>
+      <c r="B198" t="s">
+        <v>449</v>
+      </c>
+      <c r="C198" t="s">
+        <v>449</v>
+      </c>
+      <c r="D198" t="s">
+        <v>449</v>
+      </c>
+      <c r="E198" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A199" t="s">
+        <v>270</v>
+      </c>
+      <c r="B199" t="s">
+        <v>450</v>
+      </c>
+      <c r="C199" t="s">
+        <v>450</v>
+      </c>
+      <c r="D199" t="s">
+        <v>450</v>
+      </c>
+      <c r="E199" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B200" t="s">
+        <v>451</v>
+      </c>
+      <c r="C200" t="s">
+        <v>451</v>
+      </c>
+      <c r="D200" t="s">
+        <v>451</v>
+      </c>
+      <c r="E200" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A201" t="s">
+        <v>270</v>
+      </c>
+      <c r="B201" t="s">
+        <v>452</v>
+      </c>
+      <c r="C201" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" t="s">
+        <v>452</v>
+      </c>
+      <c r="E201" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A202" t="s">
+        <v>270</v>
+      </c>
+      <c r="B202" t="s">
+        <v>453</v>
+      </c>
+      <c r="C202" t="s">
+        <v>453</v>
+      </c>
+      <c r="D202" t="s">
+        <v>453</v>
+      </c>
+      <c r="E202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A203" t="s">
+        <v>270</v>
+      </c>
+      <c r="B203" t="s">
+        <v>454</v>
+      </c>
+      <c r="C203" t="s">
+        <v>454</v>
+      </c>
+      <c r="D203" t="s">
+        <v>454</v>
+      </c>
+      <c r="E203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A204" t="s">
+        <v>270</v>
+      </c>
+      <c r="B204" t="s">
+        <v>455</v>
+      </c>
+      <c r="C204" t="s">
+        <v>455</v>
+      </c>
+      <c r="D204" t="s">
+        <v>455</v>
+      </c>
+      <c r="E204" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A205" t="s">
+        <v>270</v>
+      </c>
+      <c r="B205" t="s">
+        <v>456</v>
+      </c>
+      <c r="C205" t="s">
+        <v>456</v>
+      </c>
+      <c r="D205" t="s">
+        <v>456</v>
+      </c>
+      <c r="E205" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A206" t="s">
+        <v>270</v>
+      </c>
+      <c r="B206" t="s">
+        <v>457</v>
+      </c>
+      <c r="C206" t="s">
+        <v>457</v>
+      </c>
+      <c r="D206" t="s">
+        <v>457</v>
+      </c>
+      <c r="E206" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A207" t="s">
+        <v>270</v>
+      </c>
+      <c r="B207" t="s">
+        <v>458</v>
+      </c>
+      <c r="C207" t="s">
+        <v>458</v>
+      </c>
+      <c r="D207" t="s">
+        <v>458</v>
+      </c>
+      <c r="E207" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A208" t="s">
+        <v>270</v>
+      </c>
+      <c r="B208" t="s">
+        <v>459</v>
+      </c>
+      <c r="C208" t="s">
+        <v>459</v>
+      </c>
+      <c r="D208" t="s">
+        <v>459</v>
+      </c>
+      <c r="E208" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A209" t="s">
+        <v>270</v>
+      </c>
+      <c r="B209" t="s">
+        <v>460</v>
+      </c>
+      <c r="C209" t="s">
+        <v>460</v>
+      </c>
+      <c r="D209" t="s">
+        <v>460</v>
+      </c>
+      <c r="E209" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A210" t="s">
+        <v>270</v>
+      </c>
+      <c r="B210" t="s">
+        <v>461</v>
+      </c>
+      <c r="C210" t="s">
+        <v>461</v>
+      </c>
+      <c r="D210" t="s">
+        <v>461</v>
+      </c>
+      <c r="E210" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A211" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211" t="s">
+        <v>462</v>
+      </c>
+      <c r="C211" t="s">
+        <v>462</v>
+      </c>
+      <c r="D211" t="s">
+        <v>462</v>
+      </c>
+      <c r="E211" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A212" t="s">
+        <v>270</v>
+      </c>
+      <c r="B212" t="s">
+        <v>463</v>
+      </c>
+      <c r="C212" t="s">
+        <v>463</v>
+      </c>
+      <c r="D212" t="s">
+        <v>463</v>
+      </c>
+      <c r="E212" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A213" t="s">
+        <v>270</v>
+      </c>
+      <c r="B213" t="s">
+        <v>464</v>
+      </c>
+      <c r="C213" t="s">
+        <v>464</v>
+      </c>
+      <c r="D213" t="s">
+        <v>464</v>
+      </c>
+      <c r="E213" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A214" t="s">
+        <v>270</v>
+      </c>
+      <c r="B214" t="s">
+        <v>465</v>
+      </c>
+      <c r="C214" t="s">
+        <v>465</v>
+      </c>
+      <c r="D214" t="s">
+        <v>465</v>
+      </c>
+      <c r="E214" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A215" t="s">
+        <v>270</v>
+      </c>
+      <c r="B215" t="s">
+        <v>466</v>
+      </c>
+      <c r="C215" t="s">
+        <v>466</v>
+      </c>
+      <c r="D215" t="s">
+        <v>466</v>
+      </c>
+      <c r="E215" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A216" t="s">
+        <v>270</v>
+      </c>
+      <c r="B216" t="s">
+        <v>467</v>
+      </c>
+      <c r="C216" t="s">
+        <v>467</v>
+      </c>
+      <c r="D216" t="s">
+        <v>467</v>
+      </c>
+      <c r="E216" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A217" t="s">
+        <v>270</v>
+      </c>
+      <c r="B217" t="s">
+        <v>468</v>
+      </c>
+      <c r="C217" t="s">
+        <v>468</v>
+      </c>
+      <c r="D217" t="s">
+        <v>468</v>
+      </c>
+      <c r="E217" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A218" t="s">
+        <v>270</v>
+      </c>
+      <c r="B218" t="s">
+        <v>469</v>
+      </c>
+      <c r="C218" t="s">
+        <v>469</v>
+      </c>
+      <c r="D218" t="s">
+        <v>469</v>
+      </c>
+      <c r="E218" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A219" t="s">
+        <v>270</v>
+      </c>
+      <c r="B219" t="s">
+        <v>470</v>
+      </c>
+      <c r="C219" t="s">
+        <v>470</v>
+      </c>
+      <c r="D219" t="s">
+        <v>470</v>
+      </c>
+      <c r="E219" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A220" t="s">
+        <v>270</v>
+      </c>
+      <c r="B220" t="s">
+        <v>471</v>
+      </c>
+      <c r="C220" t="s">
+        <v>471</v>
+      </c>
+      <c r="D220" t="s">
+        <v>471</v>
+      </c>
+      <c r="E220" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A221" t="s">
+        <v>270</v>
+      </c>
+      <c r="B221" t="s">
+        <v>472</v>
+      </c>
+      <c r="C221" t="s">
+        <v>472</v>
+      </c>
+      <c r="D221" t="s">
+        <v>472</v>
+      </c>
+      <c r="E221" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A222" t="s">
+        <v>270</v>
+      </c>
+      <c r="B222" t="s">
+        <v>473</v>
+      </c>
+      <c r="C222" t="s">
+        <v>473</v>
+      </c>
+      <c r="D222" t="s">
+        <v>473</v>
+      </c>
+      <c r="E222" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A223" t="s">
+        <v>270</v>
+      </c>
+      <c r="B223" t="s">
+        <v>474</v>
+      </c>
+      <c r="C223" t="s">
+        <v>474</v>
+      </c>
+      <c r="D223" t="s">
+        <v>474</v>
+      </c>
+      <c r="E223" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A224" t="s">
+        <v>270</v>
+      </c>
+      <c r="B224" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" t="s">
+        <v>475</v>
+      </c>
+      <c r="D224" t="s">
+        <v>475</v>
+      </c>
+      <c r="E224" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A225" t="s">
+        <v>270</v>
+      </c>
+      <c r="B225" t="s">
+        <v>476</v>
+      </c>
+      <c r="C225" t="s">
+        <v>476</v>
+      </c>
+      <c r="D225" t="s">
+        <v>476</v>
+      </c>
+      <c r="E225" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A226" t="s">
+        <v>270</v>
+      </c>
+      <c r="B226" t="s">
+        <v>477</v>
+      </c>
+      <c r="C226" t="s">
+        <v>477</v>
+      </c>
+      <c r="D226" t="s">
+        <v>477</v>
+      </c>
+      <c r="E226" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A227" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227" t="s">
+        <v>478</v>
+      </c>
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+      <c r="D227" t="s">
+        <v>478</v>
+      </c>
+      <c r="E227" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A228" t="s">
+        <v>270</v>
+      </c>
+      <c r="B228" t="s">
+        <v>479</v>
+      </c>
+      <c r="C228" t="s">
+        <v>479</v>
+      </c>
+      <c r="D228" t="s">
+        <v>479</v>
+      </c>
+      <c r="E228" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A229" t="s">
+        <v>270</v>
+      </c>
+      <c r="B229" t="s">
+        <v>480</v>
+      </c>
+      <c r="C229" t="s">
+        <v>480</v>
+      </c>
+      <c r="D229" t="s">
+        <v>480</v>
+      </c>
+      <c r="E229" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A230" t="s">
+        <v>270</v>
+      </c>
+      <c r="B230" t="s">
+        <v>481</v>
+      </c>
+      <c r="C230" t="s">
+        <v>481</v>
+      </c>
+      <c r="D230" t="s">
+        <v>481</v>
+      </c>
+      <c r="E230" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A231" t="s">
+        <v>270</v>
+      </c>
+      <c r="B231" t="s">
+        <v>482</v>
+      </c>
+      <c r="C231" t="s">
+        <v>482</v>
+      </c>
+      <c r="D231" t="s">
+        <v>482</v>
+      </c>
+      <c r="E231" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A232" t="s">
+        <v>270</v>
+      </c>
+      <c r="B232" t="s">
+        <v>483</v>
+      </c>
+      <c r="C232" t="s">
+        <v>483</v>
+      </c>
+      <c r="D232" t="s">
+        <v>483</v>
+      </c>
+      <c r="E232" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A233" t="s">
+        <v>270</v>
+      </c>
+      <c r="B233" t="s">
+        <v>484</v>
+      </c>
+      <c r="C233" t="s">
+        <v>484</v>
+      </c>
+      <c r="D233" t="s">
+        <v>484</v>
+      </c>
+      <c r="E233" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A234" t="s">
+        <v>270</v>
+      </c>
+      <c r="B234" t="s">
+        <v>485</v>
+      </c>
+      <c r="C234" t="s">
+        <v>485</v>
+      </c>
+      <c r="D234" t="s">
+        <v>485</v>
+      </c>
+      <c r="E234" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A235" t="s">
+        <v>270</v>
+      </c>
+      <c r="B235" t="s">
+        <v>486</v>
+      </c>
+      <c r="C235" t="s">
+        <v>486</v>
+      </c>
+      <c r="D235" t="s">
+        <v>486</v>
+      </c>
+      <c r="E235" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A236" t="s">
+        <v>270</v>
+      </c>
+      <c r="B236" t="s">
+        <v>487</v>
+      </c>
+      <c r="C236" t="s">
+        <v>487</v>
+      </c>
+      <c r="D236" t="s">
+        <v>487</v>
+      </c>
+      <c r="E236" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A237" t="s">
+        <v>270</v>
+      </c>
+      <c r="B237" t="s">
+        <v>488</v>
+      </c>
+      <c r="C237" t="s">
+        <v>488</v>
+      </c>
+      <c r="D237" t="s">
+        <v>488</v>
+      </c>
+      <c r="E237" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A238" t="s">
+        <v>270</v>
+      </c>
+      <c r="B238" t="s">
+        <v>489</v>
+      </c>
+      <c r="C238" t="s">
+        <v>489</v>
+      </c>
+      <c r="D238" t="s">
+        <v>489</v>
+      </c>
+      <c r="E238" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A239" t="s">
+        <v>270</v>
+      </c>
+      <c r="B239" t="s">
+        <v>490</v>
+      </c>
+      <c r="C239" t="s">
+        <v>490</v>
+      </c>
+      <c r="D239" t="s">
+        <v>490</v>
+      </c>
+      <c r="E239" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A240" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240" t="s">
+        <v>491</v>
+      </c>
+      <c r="C240" t="s">
+        <v>491</v>
+      </c>
+      <c r="D240" t="s">
+        <v>491</v>
+      </c>
+      <c r="E240" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A241" t="s">
+        <v>270</v>
+      </c>
+      <c r="B241" t="s">
+        <v>492</v>
+      </c>
+      <c r="C241" t="s">
+        <v>492</v>
+      </c>
+      <c r="D241" t="s">
+        <v>492</v>
+      </c>
+      <c r="E241" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A242" t="s">
+        <v>270</v>
+      </c>
+      <c r="B242" t="s">
+        <v>493</v>
+      </c>
+      <c r="C242" t="s">
+        <v>493</v>
+      </c>
+      <c r="D242" t="s">
+        <v>493</v>
+      </c>
+      <c r="E242" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A243" t="s">
+        <v>270</v>
+      </c>
+      <c r="B243" t="s">
+        <v>494</v>
+      </c>
+      <c r="C243" t="s">
+        <v>494</v>
+      </c>
+      <c r="D243" t="s">
+        <v>494</v>
+      </c>
+      <c r="E243" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A244" t="s">
+        <v>270</v>
+      </c>
+      <c r="B244" t="s">
+        <v>495</v>
+      </c>
+      <c r="C244" t="s">
+        <v>495</v>
+      </c>
+      <c r="D244" t="s">
+        <v>495</v>
+      </c>
+      <c r="E244" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A245" t="s">
+        <v>270</v>
+      </c>
+      <c r="B245" t="s">
+        <v>496</v>
+      </c>
+      <c r="C245" t="s">
+        <v>496</v>
+      </c>
+      <c r="D245" t="s">
+        <v>496</v>
+      </c>
+      <c r="E245" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A246" t="s">
+        <v>270</v>
+      </c>
+      <c r="B246" t="s">
+        <v>497</v>
+      </c>
+      <c r="C246" t="s">
+        <v>497</v>
+      </c>
+      <c r="D246" t="s">
+        <v>497</v>
+      </c>
+      <c r="E246" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A247" t="s">
+        <v>270</v>
+      </c>
+      <c r="B247" t="s">
+        <v>498</v>
+      </c>
+      <c r="C247" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247" t="s">
+        <v>498</v>
+      </c>
+      <c r="E247" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A248" t="s">
+        <v>270</v>
+      </c>
+      <c r="B248" t="s">
+        <v>499</v>
+      </c>
+      <c r="C248" t="s">
+        <v>499</v>
+      </c>
+      <c r="D248" t="s">
+        <v>499</v>
+      </c>
+      <c r="E248" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A249" t="s">
+        <v>270</v>
+      </c>
+      <c r="B249" t="s">
+        <v>500</v>
+      </c>
+      <c r="C249" t="s">
+        <v>500</v>
+      </c>
+      <c r="D249" t="s">
+        <v>500</v>
+      </c>
+      <c r="E249" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A250" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250" t="s">
+        <v>501</v>
+      </c>
+      <c r="C250" t="s">
+        <v>501</v>
+      </c>
+      <c r="D250" t="s">
+        <v>501</v>
+      </c>
+      <c r="E250" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A251" t="s">
+        <v>270</v>
+      </c>
+      <c r="B251" t="s">
+        <v>502</v>
+      </c>
+      <c r="C251" t="s">
+        <v>502</v>
+      </c>
+      <c r="D251" t="s">
+        <v>502</v>
+      </c>
+      <c r="E251" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A252" t="s">
+        <v>270</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+      <c r="C252" t="s">
+        <v>503</v>
+      </c>
+      <c r="D252" t="s">
+        <v>503</v>
+      </c>
+      <c r="E252" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A253" t="s">
+        <v>270</v>
+      </c>
+      <c r="B253" t="s">
+        <v>504</v>
+      </c>
+      <c r="C253" t="s">
+        <v>504</v>
+      </c>
+      <c r="D253" t="s">
+        <v>504</v>
+      </c>
+      <c r="E253" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A254" t="s">
+        <v>270</v>
+      </c>
+      <c r="B254" t="s">
+        <v>505</v>
+      </c>
+      <c r="C254" t="s">
+        <v>505</v>
+      </c>
+      <c r="D254" t="s">
+        <v>505</v>
+      </c>
+      <c r="E254" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A255" t="s">
+        <v>270</v>
+      </c>
+      <c r="B255" t="s">
+        <v>506</v>
+      </c>
+      <c r="C255" t="s">
+        <v>506</v>
+      </c>
+      <c r="D255" t="s">
+        <v>506</v>
+      </c>
+      <c r="E255" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A256" t="s">
+        <v>270</v>
+      </c>
+      <c r="B256" t="s">
+        <v>507</v>
+      </c>
+      <c r="C256" t="s">
+        <v>507</v>
+      </c>
+      <c r="D256" t="s">
+        <v>507</v>
+      </c>
+      <c r="E256" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A257" t="s">
+        <v>270</v>
+      </c>
+      <c r="B257" t="s">
+        <v>508</v>
+      </c>
+      <c r="C257" t="s">
+        <v>508</v>
+      </c>
+      <c r="D257" t="s">
+        <v>508</v>
+      </c>
+      <c r="E257" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A258" t="s">
+        <v>270</v>
+      </c>
+      <c r="B258" t="s">
+        <v>509</v>
+      </c>
+      <c r="C258" t="s">
+        <v>509</v>
+      </c>
+      <c r="D258" t="s">
+        <v>509</v>
+      </c>
+      <c r="E258" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="12.75" customHeight="1">
+      <c r="A259" t="s">
+        <v>270</v>
+      </c>
+      <c r="B259" t="s">
+        <v>510</v>
+      </c>
+      <c r="C259" t="s">
+        <v>510</v>
+      </c>
+      <c r="D259" t="s">
+        <v>510</v>
+      </c>
+      <c r="E259" t="s">
+        <v>266</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3642,24 +8320,24 @@
         <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
@@ -3891,18 +8569,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3925,18 +8603,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B5E1B7-E09F-477B-9864-A5279C450C07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E4C7D98-9224-4792-8278-6767F90BC43C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97B5E1B7-E09F-477B-9864-A5279C450C07}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>